--- a/static/download/2014/RP1_SAF_RAT_App_2014.xlsx
+++ b/static/download/2014/RP1_SAF_RAT_App_2014.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Data information" sheetId="1" r:id="rId3"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
   <authors>
     <author/>
   </authors>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>CAVEAT</t>
   </si>
@@ -129,6 +129,9 @@
     <t>Meta data</t>
   </si>
   <si>
+    <t>Metadata - Single European Sky Portal</t>
+  </si>
+  <si>
     <t>Release date</t>
   </si>
   <si>
@@ -136,6 +139,9 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>pru-support@eurocontrol.int</t>
   </si>
   <si>
     <t>% severity assessed with RAT</t>
@@ -428,8 +434,8 @@
     <font>
       <u/>
       <sz val="9.0"/>
-      <color rgb="FF396EA2"/>
-      <name val="Calibri"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -485,7 +491,36 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
+    <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left/>
       <right/>
@@ -493,34 +528,6 @@
       <bottom/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -569,6 +576,26 @@
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -592,157 +619,168 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="9" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment wrapText="1"/>
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="17" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,30 +790,33 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/worksheetdrawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="88.0"/>
+    <col customWidth="1" min="1" max="1" width="77.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
@@ -819,7 +860,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -828,15 +872,15 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="3" width="10.43"/>
-    <col customWidth="1" min="4" max="4" width="2.0"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="15.43"/>
-    <col customWidth="1" min="9" max="9" width="32.0"/>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col customWidth="1" min="2" max="3" width="9.13"/>
+    <col customWidth="1" min="4" max="4" width="1.75"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="1.88"/>
+    <col customWidth="1" min="8" max="8" width="13.5"/>
+    <col customWidth="1" min="9" max="9" width="28.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -858,14 +902,13 @@
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RAT_methodology_application","RAT methodology application")</f>
-        <v>RAT methodology application</v>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>42298.0</v>
@@ -873,18 +916,17 @@
       <c r="C2" s="12"/>
       <c r="D2" s="13"/>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="12">
         <v>42004.0</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
@@ -900,49 +942,49 @@
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
       <c r="E4" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="23"/>
       <c r="H4" s="20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="27"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="29">
         <v>1.0</v>
@@ -965,7 +1007,7 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="29">
         <v>1.0</v>
@@ -988,7 +1030,7 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="29">
         <v>1.0</v>
@@ -998,10 +1040,10 @@
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="29">
@@ -1011,7 +1053,7 @@
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="28" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B9" s="29">
         <v>0.83</v>
@@ -1021,10 +1063,10 @@
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="29">
@@ -1034,7 +1076,7 @@
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="29">
         <v>1.0</v>
@@ -1057,7 +1099,7 @@
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="29">
         <v>1.0</v>
@@ -1080,7 +1122,7 @@
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B12" s="29">
         <v>1.0</v>
@@ -1103,7 +1145,7 @@
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B13" s="29">
         <v>1.0</v>
@@ -1113,10 +1155,10 @@
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" s="23"/>
       <c r="H13" s="29">
@@ -1126,7 +1168,7 @@
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B14" s="29">
         <v>0.93</v>
@@ -1149,7 +1191,7 @@
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="28" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="29">
         <v>1.0</v>
@@ -1172,7 +1214,7 @@
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="29">
         <v>1.0</v>
@@ -1195,7 +1237,7 @@
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="28" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="29">
         <v>1.0</v>
@@ -1218,7 +1260,7 @@
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="28" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B18" s="29">
         <v>1.0</v>
@@ -1241,7 +1283,7 @@
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="28" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B19" s="29">
         <v>0.8</v>
@@ -1264,7 +1306,7 @@
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B20" s="29">
         <v>1.0</v>
@@ -1287,7 +1329,7 @@
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="28" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="29">
         <v>1.0</v>
@@ -1310,7 +1352,7 @@
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="29">
         <v>1.0</v>
@@ -1333,7 +1375,7 @@
     </row>
     <row r="23" ht="12.0" customHeight="1">
       <c r="A23" s="28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="29">
         <v>1.0</v>
@@ -1350,13 +1392,13 @@
       </c>
       <c r="G23" s="23"/>
       <c r="H23" s="29">
-        <v>0.06</v>
+        <v>1.0</v>
       </c>
       <c r="I23" s="30"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
       <c r="A24" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" s="29">
         <v>0.09</v>
@@ -1379,7 +1421,7 @@
     </row>
     <row r="25" ht="12.0" customHeight="1">
       <c r="A25" s="28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" s="29">
         <v>0.59</v>
@@ -1402,7 +1444,7 @@
     </row>
     <row r="26" ht="12.0" customHeight="1">
       <c r="A26" s="28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" s="29">
         <v>0.79</v>
@@ -1425,7 +1467,7 @@
     </row>
     <row r="27" ht="12.0" customHeight="1">
       <c r="A27" s="28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B27" s="29">
         <v>0.75</v>
@@ -1448,7 +1490,7 @@
     </row>
     <row r="28" ht="12.0" customHeight="1">
       <c r="A28" s="28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B28" s="29">
         <v>1.0</v>
@@ -1471,7 +1513,7 @@
     </row>
     <row r="29" ht="12.0" customHeight="1">
       <c r="A29" s="28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B29" s="29">
         <v>0.75</v>
@@ -1494,7 +1536,7 @@
     </row>
     <row r="30" ht="12.0" customHeight="1">
       <c r="A30" s="28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="29">
         <v>1.0</v>
@@ -1517,7 +1559,7 @@
     </row>
     <row r="31" ht="12.0" customHeight="1">
       <c r="A31" s="28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B31" s="29">
         <v>0.91</v>
@@ -1540,7 +1582,7 @@
     </row>
     <row r="32" ht="12.0" customHeight="1">
       <c r="A32" s="28" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B32" s="29">
         <v>0.41</v>
@@ -1563,7 +1605,7 @@
     </row>
     <row r="33" ht="12.0" customHeight="1">
       <c r="A33" s="28" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B33" s="29">
         <v>0.3</v>
@@ -1586,7 +1628,7 @@
     </row>
     <row r="34" ht="12.0" customHeight="1">
       <c r="A34" s="28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B34" s="29">
         <v>1.0</v>
@@ -1614,15 +1656,17 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="I2"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" ySplit="5.0" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
@@ -1631,16 +1675,16 @@
       <selection activeCell="B6" sqref="B6" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="10.43"/>
-    <col customWidth="1" min="3" max="3" width="10.29"/>
-    <col customWidth="1" min="4" max="4" width="2.0"/>
-    <col customWidth="1" min="5" max="6" width="10.43"/>
-    <col customWidth="1" min="7" max="7" width="2.14"/>
-    <col customWidth="1" min="8" max="8" width="18.43"/>
-    <col customWidth="1" min="9" max="9" width="8.86"/>
+    <col customWidth="1" min="1" max="1" width="14.38"/>
+    <col customWidth="1" min="2" max="2" width="9.13"/>
+    <col customWidth="1" min="3" max="3" width="9.0"/>
+    <col customWidth="1" min="4" max="4" width="1.75"/>
+    <col customWidth="1" min="5" max="6" width="9.13"/>
+    <col customWidth="1" min="7" max="7" width="1.88"/>
+    <col customWidth="1" min="8" max="8" width="16.13"/>
+    <col customWidth="1" min="9" max="9" width="7.75"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
@@ -1662,14 +1706,13 @@
       <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="9" t="str">
-        <f>HYPERLINK("http://prudata.webfactional.com/wiki/index.php/RAT_methodology_application","RAT methodology application")</f>
-        <v>RAT methodology application</v>
+      <c r="I1" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="11">
         <v>42298.0</v>
@@ -1677,18 +1720,17 @@
       <c r="C2" s="12"/>
       <c r="D2" s="35"/>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="36">
         <v>42004.0</v>
       </c>
       <c r="G2" s="35"/>
       <c r="H2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="14" t="str">
-        <f>HYPERLINK("mailto:NSA-PRU-Support@eurocontrol.int","NSA-PRU-Support@eurocontrol.int")</f>
-        <v>NSA-PRU-Support@eurocontrol.int</v>
+        <v>14</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
@@ -1704,43 +1746,43 @@
     </row>
     <row r="4" ht="25.5" customHeight="1">
       <c r="A4" s="20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="39"/>
       <c r="E4" s="24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="39"/>
       <c r="H4" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I4" s="25"/>
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G5" s="23"/>
       <c r="H5" s="20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I5" s="40"/>
     </row>
@@ -1809,7 +1851,7 @@
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="29">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="I8" s="40"/>
     </row>
@@ -1820,38 +1862,40 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="I1"/>
-    <hyperlink r:id="rId3" ref="I2"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="15.13" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.57"/>
-    <col customWidth="1" min="2" max="2" width="25.57"/>
-    <col customWidth="1" min="3" max="3" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="113.57"/>
+    <col customWidth="1" min="1" max="1" width="9.25"/>
+    <col customWidth="1" min="2" max="2" width="22.38"/>
+    <col customWidth="1" min="3" max="3" width="7.0"/>
+    <col customWidth="1" min="4" max="4" width="99.38"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
@@ -1859,11 +1903,11 @@
         <v>41745.0</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
@@ -1871,11 +1915,11 @@
         <v>41746.0</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="46" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -1883,13 +1927,13 @@
         <v>41834.0</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4" s="49">
         <v>2013.0</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -1897,13 +1941,13 @@
         <v>41918.0</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5" s="49">
         <v>2013.0</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -1911,13 +1955,13 @@
         <v>41918.0</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" s="49">
         <v>2013.0</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -1925,13 +1969,13 @@
         <v>41918.0</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="49">
         <v>2013.0</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -1939,13 +1983,13 @@
         <v>41918.0</v>
       </c>
       <c r="B8" s="49" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="49">
         <v>2013.0</v>
       </c>
       <c r="D8" s="49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -1953,13 +1997,13 @@
         <v>41918.0</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" s="49">
         <v>2013.0</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1967,13 +2011,13 @@
         <v>41948.0</v>
       </c>
       <c r="B10" s="49" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C10" s="49">
         <v>2013.0</v>
       </c>
       <c r="D10" s="49" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -1981,13 +2025,13 @@
         <v>41948.0</v>
       </c>
       <c r="B11" s="49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C11" s="49">
         <v>2013.0</v>
       </c>
       <c r="D11" s="49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -1995,13 +2039,13 @@
         <v>41948.0</v>
       </c>
       <c r="B12" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C12" s="49">
         <v>2013.0</v>
       </c>
       <c r="D12" s="49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -2009,13 +2053,13 @@
         <v>41955.0</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C13" s="49">
         <v>2013.0</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -2023,13 +2067,13 @@
         <v>41955.0</v>
       </c>
       <c r="B14" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14" s="49">
         <v>2013.0</v>
       </c>
       <c r="D14" s="49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -2037,13 +2081,13 @@
         <v>41990.0</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" s="49">
         <v>2013.0</v>
       </c>
       <c r="D15" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -2051,13 +2095,13 @@
         <v>41990.0</v>
       </c>
       <c r="B16" s="49" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="49">
         <v>2013.0</v>
       </c>
       <c r="D16" s="49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
@@ -2065,13 +2109,13 @@
         <v>41990.0</v>
       </c>
       <c r="B17" s="49" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C17" s="49">
         <v>2013.0</v>
       </c>
       <c r="D17" s="49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -2079,13 +2123,13 @@
         <v>41990.0</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C18" s="49">
         <v>2013.0</v>
       </c>
       <c r="D18" s="49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -2093,13 +2137,13 @@
         <v>41990.0</v>
       </c>
       <c r="B19" s="49" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C19" s="49">
         <v>2013.0</v>
       </c>
       <c r="D19" s="49" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -2107,13 +2151,13 @@
         <v>41990.0</v>
       </c>
       <c r="B20" s="49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="49">
         <v>2013.0</v>
       </c>
       <c r="D20" s="49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2121,13 +2165,13 @@
         <v>41990.0</v>
       </c>
       <c r="B21" s="49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="49">
         <v>2013.0</v>
       </c>
       <c r="D21" s="49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2135,13 +2179,13 @@
         <v>41990.0</v>
       </c>
       <c r="B22" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C22" s="49">
         <v>2013.0</v>
       </c>
       <c r="D22" s="49" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -2149,13 +2193,13 @@
         <v>42130.0</v>
       </c>
       <c r="B23" s="49" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C23" s="49">
         <v>2014.0</v>
       </c>
       <c r="D23" s="49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -2163,13 +2207,13 @@
         <v>42249.0</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C24" s="49">
         <v>2014.0</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -2177,13 +2221,13 @@
         <v>42275.0</v>
       </c>
       <c r="B25" s="52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="52">
         <v>2014.0</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2191,13 +2235,13 @@
         <v>42275.0</v>
       </c>
       <c r="B26" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C26" s="52">
         <v>2014.0</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2205,13 +2249,13 @@
         <v>42277.0</v>
       </c>
       <c r="B27" s="52" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" s="52">
         <v>2014.0</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -2219,13 +2263,13 @@
         <v>42277.0</v>
       </c>
       <c r="B28" s="52" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" s="52">
         <v>2014.0</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="12.75" customHeight="1">
@@ -2233,13 +2277,27 @@
         <v>42298.0</v>
       </c>
       <c r="B29" s="52" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C29" s="52">
         <v>2014.0</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="A30" s="51">
+        <v>42469.0</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="53">
+        <v>2014.0</v>
+      </c>
+      <c r="D30" s="49" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
